--- a/Design/FlowchartExcel.xlsx
+++ b/Design/FlowchartExcel.xlsx
@@ -1595,7 +1595,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Select Target</a:t>
+            <a:t>Select Target(s)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1612,7 +1612,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1623,7 +1623,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3866029" y="5524500"/>
-          <a:ext cx="1288677" cy="571500"/>
+          <a:ext cx="1288677" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1652,7 +1652,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Cancel</a:t>
+            <a:t>Cancel (clear targets for selected weapon)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1663,13 +1663,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1679,7 +1679,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3608294" y="6286500"/>
+          <a:off x="3608294" y="6477000"/>
           <a:ext cx="1546412" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1764,7 +1764,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Weapon Slots 1-4</a:t>
+            <a:t>Heavy Weapon Slots 1-2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1775,13 +1775,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1791,7 +1791,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9793941" y="4572000"/>
+          <a:off x="9793941" y="5334000"/>
           <a:ext cx="1546412" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2003,13 +2003,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2019,7 +2019,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9793941" y="5334000"/>
+          <a:off x="9793941" y="6096000"/>
           <a:ext cx="1546412" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2174,13 +2174,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2190,7 +2190,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3608294" y="7048500"/>
+          <a:off x="3608294" y="7239000"/>
           <a:ext cx="1546412" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2220,7 +2220,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Cancel</a:t>
+            <a:t>Cancel (clear all targets)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2231,13 +2231,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2247,7 +2247,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9793941" y="6858000"/>
+          <a:off x="9793941" y="7620000"/>
           <a:ext cx="1546412" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2845,8 +2845,8 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2859,7 +2859,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="5154706" y="3714750"/>
-          <a:ext cx="12700" cy="2095500"/>
+          <a:ext cx="12700" cy="2190750"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2897,7 +2897,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2911,7 +2911,7 @@
       <xdr:spPr>
         <a:xfrm rot="10800000">
           <a:off x="3608294" y="3143250"/>
-          <a:ext cx="12700" cy="4191000"/>
+          <a:ext cx="12700" cy="4381500"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2949,7 +2949,7 @@
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2963,7 +2963,7 @@
       <xdr:spPr>
         <a:xfrm rot="10800000">
           <a:off x="9793941" y="3143250"/>
-          <a:ext cx="12700" cy="4000500"/>
+          <a:ext cx="12700" cy="4762500"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3300,13 +3300,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3316,7 +3316,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9793941" y="6096000"/>
+          <a:off x="9793941" y="6858000"/>
           <a:ext cx="1546412" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3347,6 +3347,113 @@
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
             <a:t>Destroy Slot 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257734</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>128306</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Elbow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="44" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4350403" y="4412596"/>
+          <a:ext cx="190500" cy="128307"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Rounded Rectangle 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9793941" y="4572000"/>
+          <a:ext cx="1546412" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>Light Weapon Slots  1-2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6747,14 +6854,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F19:BG62"/>
+  <dimension ref="C2:BG62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB31" sqref="AB31"/>
+      <selection activeCell="AW31" sqref="AW31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
     <row r="19" spans="7:59" x14ac:dyDescent="0.25">
       <c r="AU19" s="5"/>
       <c r="AV19" s="5"/>
@@ -7241,12 +7438,12 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-      <c r="AM40" s="5"/>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="5"/>
-      <c r="AP40" s="5"/>
-      <c r="AQ40" s="5"/>
-      <c r="AR40" s="5"/>
+      <c r="AM40" s="6"/>
+      <c r="AN40" s="6"/>
+      <c r="AO40" s="6"/>
+      <c r="AP40" s="6"/>
+      <c r="AQ40" s="6"/>
+      <c r="AR40" s="6"/>
     </row>
     <row r="41" spans="7:44" x14ac:dyDescent="0.25">
       <c r="G41" s="2"/>
@@ -7256,20 +7453,20 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
       <c r="U41" s="5"/>
       <c r="W41" s="5"/>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="5"/>
-      <c r="AR41" s="5"/>
+      <c r="AM41" s="6"/>
+      <c r="AN41" s="6"/>
+      <c r="AO41" s="6"/>
+      <c r="AP41" s="6"/>
+      <c r="AQ41" s="6"/>
+      <c r="AR41" s="6"/>
     </row>
     <row r="42" spans="7:44" x14ac:dyDescent="0.25">
       <c r="G42" s="2"/>
@@ -7284,12 +7481,12 @@
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
-      <c r="AM42" s="5"/>
-      <c r="AN42" s="5"/>
-      <c r="AO42" s="5"/>
-      <c r="AP42" s="5"/>
-      <c r="AQ42" s="5"/>
-      <c r="AR42" s="5"/>
+      <c r="AM42" s="6"/>
+      <c r="AN42" s="6"/>
+      <c r="AO42" s="6"/>
+      <c r="AP42" s="6"/>
+      <c r="AQ42" s="6"/>
+      <c r="AR42" s="6"/>
     </row>
     <row r="43" spans="7:44" x14ac:dyDescent="0.25">
       <c r="G43" s="2"/>
@@ -7304,12 +7501,12 @@
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
-      <c r="AO43" s="5"/>
-      <c r="AP43" s="5"/>
-      <c r="AQ43" s="5"/>
-      <c r="AR43" s="5"/>
+      <c r="AM43" s="6"/>
+      <c r="AN43" s="6"/>
+      <c r="AO43" s="6"/>
+      <c r="AP43" s="6"/>
+      <c r="AQ43" s="6"/>
+      <c r="AR43" s="6"/>
     </row>
     <row r="44" spans="7:44" x14ac:dyDescent="0.25">
       <c r="G44" s="2"/>

--- a/Design/FlowchartExcel.xlsx
+++ b/Design/FlowchartExcel.xlsx
@@ -10,6 +10,7 @@
     <sheet name="GUI FLOW" sheetId="2" r:id="rId1"/>
     <sheet name="MENU FLOW" sheetId="8" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1283,13 +1284,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rounded Rectangle 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1543050" y="6858000"/>
-          <a:ext cx="1543050" cy="571500"/>
+        <xdr:cNvPr id="23" name="Rounded Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1546412" y="6858000"/>
+          <a:ext cx="1546412" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1316,7 +1317,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Rotate Counter Clockwise (Upper)</a:t>
+            <a:t>Strafe Left</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1327,24 +1328,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rounded Rectangle 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1543050" y="8382000"/>
-          <a:ext cx="1543050" cy="571500"/>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rounded Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1546412" y="7620000"/>
+          <a:ext cx="1546412" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1371,117 +1372,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Rotate Counter Clockwise (Lower)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rounded Rectangle 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1543050" y="7620000"/>
-          <a:ext cx="1543050" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Rotate Clockwise (Upper)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rounded Rectangle 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1543050" y="9144000"/>
-          <a:ext cx="1543050" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>Rotate Clockwise (Lower)</a:t>
+            <a:t>Strafe Right</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2117,13 +2008,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2133,8 +2024,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1543050" y="9906000"/>
-          <a:ext cx="1543050" cy="571500"/>
+          <a:off x="1546412" y="8382000"/>
+          <a:ext cx="1546412" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2793,7 +2684,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2806,8 +2697,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="1543050" y="3143250"/>
-          <a:ext cx="12700" cy="7048500"/>
+          <a:off x="1546412" y="3143250"/>
+          <a:ext cx="12700" cy="5524500"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -6559,6 +6450,648 @@
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
             <a:t>Cancel</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="571500"/>
+          <a:ext cx="12344400" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="762000"/>
+          <a:ext cx="11830050" cy="7239000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="952500"/>
+          <a:ext cx="5400675" cy="6858000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="1047750"/>
+          <a:ext cx="4886325" cy="6667500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>MISSION BRIEF</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lorem ipsum dolor sit amet, consectetur adipisicing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Derp.</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="962024"/>
+          <a:ext cx="5657850" cy="3038476"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="4219574"/>
+          <a:ext cx="5657850" cy="3038476"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10029825" y="7429500"/>
+          <a:ext cx="2057400" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="7429500"/>
+          <a:ext cx="2057400" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="1047750"/>
+          <a:ext cx="5143500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>&lt;mission_image_here&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rounded Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="4314825"/>
+          <a:ext cx="5143500" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>MISSION OBJECTIVES</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>PRIORITY</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t> Locate and retrieve Captain's Log</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>ADDITIONAL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>* </a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6857,7 +7390,7 @@
   <dimension ref="C2:BG62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW31" sqref="AW31"/>
+      <selection activeCell="Y40" sqref="Y40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7571,12 +8104,12 @@
       <c r="AR47" s="5"/>
     </row>
     <row r="48" spans="7:44" x14ac:dyDescent="0.25">
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
       <c r="AM48" s="5"/>
       <c r="AN48" s="5"/>
       <c r="AO48" s="5"/>
@@ -7585,12 +8118,12 @@
       <c r="AR48" s="5"/>
     </row>
     <row r="49" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
       <c r="AM49" s="5"/>
       <c r="AN49" s="5"/>
       <c r="AO49" s="5"/>
@@ -7599,12 +8132,12 @@
       <c r="AR49" s="5"/>
     </row>
     <row r="50" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
       <c r="AM50" s="5"/>
       <c r="AN50" s="5"/>
       <c r="AO50" s="5"/>
@@ -7613,12 +8146,12 @@
       <c r="AR50" s="5"/>
     </row>
     <row r="51" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
       <c r="AM51" s="5"/>
       <c r="AN51" s="5"/>
       <c r="AO51" s="5"/>
@@ -7628,12 +8161,12 @@
     </row>
     <row r="52" spans="6:44" x14ac:dyDescent="0.25">
       <c r="F52" s="5"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
@@ -7645,12 +8178,12 @@
       <c r="AR52" s="5"/>
     </row>
     <row r="53" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
       <c r="AM53" s="5"/>
       <c r="AN53" s="5"/>
       <c r="AO53" s="5"/>
@@ -7659,12 +8192,12 @@
       <c r="AR53" s="5"/>
     </row>
     <row r="54" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
       <c r="AM54" s="5"/>
       <c r="AN54" s="5"/>
       <c r="AO54" s="5"/>
@@ -7673,12 +8206,12 @@
       <c r="AR54" s="5"/>
     </row>
     <row r="55" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
       <c r="AM55" s="5"/>
       <c r="AN55" s="5"/>
       <c r="AO55" s="5"/>
@@ -8027,4 +8560,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BI18" sqref="BI18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Design/FlowchartExcel.xlsx
+++ b/Design/FlowchartExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="27795" windowHeight="14130" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="27795" windowHeight="14130" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GUI FLOW" sheetId="2" r:id="rId1"/>
@@ -13033,7 +13033,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100"/>
-            <a:t>-1400</a:t>
+            <a:t>-2400</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13090,7 +13090,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100"/>
-            <a:t>-2900</a:t>
+            <a:t>-1900</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -13336,7 +13336,7 @@
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13347,7 +13347,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12629029" y="190500"/>
-          <a:ext cx="3866030" cy="2095500"/>
+          <a:ext cx="3866030" cy="2476500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -14768,16 +14768,766 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100"/>
-            <a:t>DEBT</a:t>
+            <a:t>PLAYER</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t> 1 PAYMENT</a:t>
+            <a:t> MONEY</a:t>
           </a:r>
           <a:endParaRPr lang="fi-FI" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3092824" y="5715000"/>
+          <a:ext cx="3092823" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>COMMENT:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>DEBT 1 PAYMENT = MONTHLY CUT + INTEREST</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Elbow Connector 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="40" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="2549340" y="3882838"/>
+          <a:ext cx="3429000" cy="235323"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="515471" y="5715000"/>
+          <a:ext cx="2061882" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>COMMENT:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>PLAYER MONEY = amount</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t> of money the player has at the given moment</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Elbow Connector 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+          <a:endCxn id="108" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="515471" y="1524000"/>
+          <a:ext cx="12700" cy="4667250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1800000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6443382" y="5715000"/>
+          <a:ext cx="2061883" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>COMMENT:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>PAYMENT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t> TOTAL = sum of all DEBT PAYMENTS</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Elbow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="4846545" y="3087220"/>
+          <a:ext cx="1905000" cy="3350559"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3092824" y="6858000"/>
+          <a:ext cx="2061882" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>COMMENT:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>EXISTING</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t> CASH = PLAYER MONEY - PAYMENT TOTAL</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Elbow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2835088" y="4762500"/>
+          <a:ext cx="257736" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8763000" y="5715000"/>
+          <a:ext cx="1804147" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>COMMENT:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>Incremental change = 100</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Elbow Connector 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="106" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="7972986" y="4151779"/>
+          <a:ext cx="2095500" cy="1030941"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>257734</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>128868</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Elbow Connector 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="77" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="8530478" y="3291728"/>
+          <a:ext cx="3429000" cy="1417545"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11340353" y="5715000"/>
+          <a:ext cx="1804147" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>COMMENT:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>MONTHLY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t> CUT = 1000;</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Elbow Connector 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="95" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="9177618" y="2521323"/>
+          <a:ext cx="3810000" cy="2577353"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -19225,8 +19975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BO35" sqref="BO35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BA25" sqref="BA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19256,7 +20006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AL21" sqref="AL21"/>
     </sheetView>
   </sheetViews>

--- a/Design/FlowchartExcel.xlsx
+++ b/Design/FlowchartExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="27795" windowHeight="14130" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="27795" windowHeight="14070" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="GUI FLOW" sheetId="2" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="PLAYER FINANCES" sheetId="13" r:id="rId7"/>
     <sheet name="MACRO GAME FLOW" sheetId="14" r:id="rId8"/>
     <sheet name="DATA CONSOLE" sheetId="15" r:id="rId9"/>
+    <sheet name="MENU MOCKUPS" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -17573,6 +17574,632 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13115925" y="190500"/>
+          <a:ext cx="4114800" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="190500"/>
+          <a:ext cx="12344400" cy="5143500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="381000"/>
+          <a:ext cx="7458075" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="8800">
+              <a:latin typeface="Quartz MS" panose="02010604020204040201" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>SCAVENGER</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="1905000"/>
+          <a:ext cx="2571750" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="2800"/>
+            <a:t>CONTINUE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="2476500"/>
+          <a:ext cx="2571750" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="2800"/>
+            <a:t>NEW GAME</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="3048000"/>
+          <a:ext cx="2571750" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="2800"/>
+            <a:t>OPTIONS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="3619500"/>
+          <a:ext cx="2571750" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="2800"/>
+            <a:t>CREDITS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="4191000"/>
+          <a:ext cx="2571750" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="2800"/>
+            <a:t>EXIT</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rounded Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="1905000"/>
+          <a:ext cx="5657850" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>&lt;nice picture here</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>?&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12858750" y="2095500"/>
+          <a:ext cx="2057400" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>Hide if there is no save file</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Elbow Connector 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="1"/>
+          <a:endCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="10029826" y="2190750"/>
+          <a:ext cx="2828925" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -18762,11 +19389,26 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BB26" sqref="BB26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="U18:AJ50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="BE18" sqref="BE18"/>
     </sheetView>
   </sheetViews>
@@ -19975,7 +20617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="BA25" sqref="BA25"/>
     </sheetView>
   </sheetViews>

--- a/Design/FlowchartExcel.xlsx
+++ b/Design/FlowchartExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="27795" windowHeight="14070" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="27795" windowHeight="14070" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="GUI FLOW" sheetId="2" r:id="rId1"/>
@@ -16907,11 +16907,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100"/>
-            <a:t>Lights -</a:t>
+            <a:t>Lights </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t> Top Floor (on/off)</a:t>
+            <a:t>(on/off)</a:t>
           </a:r>
           <a:endParaRPr lang="fi-FI" sz="1100"/>
         </a:p>
@@ -16934,7 +16934,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvPr id="12" name="Rectangle 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16969,63 +16969,6 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100"/>
-            <a:t>Lights - Bottom Floor (on/off)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1028701" y="4572000"/>
-          <a:ext cx="1543050" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100"/>
             <a:t>Elevator</a:t>
           </a:r>
           <a:r>
@@ -17040,68 +16983,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1028701" y="5143500"/>
-          <a:ext cx="1543050" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100"/>
-            <a:t>Weapon system power</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t> (on/off)</a:t>
-          </a:r>
-          <a:endParaRPr lang="fi-FI" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
@@ -17348,7 +17229,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvPr id="21" name="Rectangle 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17383,8 +17264,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100"/>
-            <a:t>Weapon systems (on/off)</a:t>
-          </a:r>
+            <a:t>Automated</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t> Defences (on/off)</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -17405,7 +17291,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle 20"/>
+        <xdr:cNvPr id="22" name="Rectangle 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17440,68 +17326,6 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100"/>
-            <a:t>Automated</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t> Defences (on/off)</a:t>
-          </a:r>
-          <a:endParaRPr lang="fi-FI" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7715250" y="3810000"/>
-          <a:ext cx="1800225" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100"/>
             <a:t>Open</a:t>
           </a:r>
           <a:r>
@@ -17518,13 +17342,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17534,7 +17358,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7715250" y="4572000"/>
+          <a:off x="7715250" y="3810000"/>
           <a:ext cx="1800225" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19393,7 +19217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BB26" sqref="BB26"/>
     </sheetView>
   </sheetViews>
@@ -20648,8 +20472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AL21" sqref="AL21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Design/FlowchartExcel.xlsx
+++ b/Design/FlowchartExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="27795" windowHeight="14070" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="27795" windowHeight="14010" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GUI FLOW" sheetId="2" r:id="rId1"/>
@@ -13356,15 +13356,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -13732,7 +13732,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100"/>
-            <a:t>1400 (10%)</a:t>
+            <a:t>1400 (15%)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15280,15 +15280,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -15318,29 +15318,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="23" name="Elbow Connector 22"/>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="1"/>
           <a:endCxn id="106" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="7972986" y="4151779"/>
-          <a:ext cx="2095500" cy="1030941"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+        <a:xfrm rot="10800000">
+          <a:off x="8505266" y="3619500"/>
+          <a:ext cx="257735" cy="4476750"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -15366,30 +15367,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>257734</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>128868</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>128869</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="25" name="Elbow Connector 24"/>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
           <a:endCxn id="77" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="8530478" y="3291728"/>
-          <a:ext cx="3429000" cy="1417545"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+        <a:xfrm flipV="1">
+          <a:off x="10567147" y="2286000"/>
+          <a:ext cx="386604" cy="4667250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -15442,15 +15444,15 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -15529,6 +15531,388 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12629029" y="2857500"/>
+          <a:ext cx="3866030" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>!! NEW FORMULA !!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>DEFAULTS:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>default%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t> = 0,05;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>increase% = 0,05;</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>DEBT SPECIFIC:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>month = 1;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>when daysUntilNextUpdate &lt;= 0, month++;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>interest % = (increase% * month) + default%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>interest = leftToBePaid * interest%</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11340353" y="6477000"/>
+          <a:ext cx="1804147" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>UPDATE:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>MONTHLY CUT = original</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t> debt sum * 0,05;</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8763000" y="6477000"/>
+          <a:ext cx="1804147" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>UPDATE:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>For new debts:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>Incremental change =</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t> 1000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>Min = 10 000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>Max = 50 000</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8763000" y="7620000"/>
+          <a:ext cx="1804147" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>NEW:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>For</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t> existing debts:</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>Incremental change = 1000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>Min = 1000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>Max = LeftToBePaid</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16909,9 +17293,12 @@
             <a:rPr lang="fi-FI" sz="1100"/>
             <a:t>Lights </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
-            <a:t>(on/off)</a:t>
+            <a:t> (on/off)</a:t>
           </a:r>
           <a:endParaRPr lang="fi-FI" sz="1100"/>
         </a:p>
@@ -16922,14 +17309,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16939,7 +17326,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1028700" y="4000500"/>
+          <a:off x="1028701" y="4572000"/>
           <a:ext cx="1543050" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17229,7 +17616,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle 20"/>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17264,6 +17651,63 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>Weapon systems (on/off)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="3048000"/>
+          <a:ext cx="1800225" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
             <a:t>Automated</a:t>
           </a:r>
           <a:r>
@@ -17280,13 +17724,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17296,7 +17740,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7715250" y="3048000"/>
+          <a:off x="7715250" y="3810000"/>
           <a:ext cx="1800225" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17342,13 +17786,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17358,7 +17802,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7715250" y="3810000"/>
+          <a:off x="7715250" y="4572000"/>
           <a:ext cx="1800225" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20441,8 +20885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BA25" sqref="BA25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BN33" sqref="BN33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20472,8 +20916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Design/FlowchartExcel.xlsx
+++ b/Design/FlowchartExcel.xlsx
@@ -15419,13 +15419,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15435,7 +15435,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11340353" y="5715000"/>
+          <a:off x="11340353" y="6096000"/>
           <a:ext cx="1804147" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15492,22 +15492,23 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>128868</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="31" name="Elbow Connector 30"/>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="0"/>
           <a:endCxn id="95" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="9177618" y="2521323"/>
-          <a:ext cx="3810000" cy="2577353"/>
+          <a:off x="8922684" y="2776257"/>
+          <a:ext cx="4191000" cy="2448486"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -15543,7 +15544,7 @@
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15554,7 +15555,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12629029" y="2857500"/>
-          <a:ext cx="3866030" cy="2667000"/>
+          <a:ext cx="3866030" cy="3048000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -15661,6 +15662,17 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>So interest would be 10% for the first month, 15% for the second month, and so on.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="fi-FI" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -15671,13 +15683,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -15687,7 +15699,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11340353" y="6477000"/>
+          <a:off x="11340353" y="6858000"/>
           <a:ext cx="1804147" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20886,7 +20898,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BN33" sqref="BN33"/>
+      <selection activeCell="BT22" sqref="BT22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Design/FlowchartExcel.xlsx
+++ b/Design/FlowchartExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="27795" windowHeight="14010" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="27795" windowHeight="13950" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="GUI FLOW" sheetId="2" r:id="rId1"/>
@@ -13100,63 +13100,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Rectangle 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1800225" y="11239500"/>
-          <a:ext cx="1800225" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fi-FI" sz="1100"/>
-            <a:t>TOTAL</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -17854,6 +17797,1040 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="7429500"/>
+          <a:ext cx="6429375" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571749" y="7620000"/>
+          <a:ext cx="2571751" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>CONSOLE BÖÖ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="6096000"/>
+          <a:ext cx="1285875" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="8181975"/>
+          <a:ext cx="1285875" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>BASIC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t> ACTION 1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="8572500"/>
+          <a:ext cx="1285875" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>BASIC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t> ACTION 2</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="8953500"/>
+          <a:ext cx="1285875" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>ACTION</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t> REQUIRES HACKING 1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314575" y="8953500"/>
+          <a:ext cx="771525" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>HACKING</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t> ICON</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="10477500"/>
+          <a:ext cx="3600450" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>ACCESS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t> DENIED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>Security Level: very low / low / med / high / very high</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>Your hacking rate: n</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>Chance of success: n%</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="12001500"/>
+          <a:ext cx="1285875" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>HACK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="12001500"/>
+          <a:ext cx="1285875" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>CANCEL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Elbow Connector 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1645444" y="9551194"/>
+          <a:ext cx="952500" cy="900112"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943725" y="10477500"/>
+          <a:ext cx="3600450" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>ACCESS DENIED</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>Your internal systems have been damaged.</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886325" y="11239500"/>
+          <a:ext cx="1285875" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>IF FAIL</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="3"/>
+          <a:endCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="11525250"/>
+          <a:ext cx="2571750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="12954000"/>
+          <a:ext cx="1285875" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>IF SUCCESS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="13716000"/>
+          <a:ext cx="3600450" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100"/>
+            <a:t>ACCESS GRANTED</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="fi-FI" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fi-FI" sz="1100" baseline="0"/>
+            <a:t>&lt;what ever is supposed to happen, happens&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="fi-FI" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="2"/>
+          <a:endCxn id="38" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="12573000"/>
+          <a:ext cx="0" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -20897,8 +21874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BT22" sqref="BT22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BV16" sqref="BV16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20928,8 +21905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="S73" sqref="S73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
